--- a/data-raw/wisca_params.xlsx
+++ b/data-raw/wisca_params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/msberends/Unishare/Git/AMR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8689A62-575E-7248-9D4F-0807390B659E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C58D96-D51F-764D-857B-403E52E2E236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="33100" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10980" yWindow="1860" windowWidth="36260" windowHeight="23920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="27">
   <si>
     <t>ward</t>
   </si>
@@ -46,16 +46,16 @@
     <t>gamma_posterior</t>
   </si>
   <si>
-    <t>beta_posterior1</t>
+    <t>beta_posterior_1</t>
   </si>
   <si>
-    <t>beta_posterior2</t>
+    <t>beta_posterior_2</t>
   </si>
   <si>
     <t>Clinical</t>
   </si>
   <si>
-    <t>Escherichia coli</t>
+    <t>Enterococcus faecalis</t>
   </si>
   <si>
     <t>TZP</t>
@@ -67,6 +67,9 @@
     <t>TZP + TOB</t>
   </si>
   <si>
+    <t>Escherichia coli</t>
+  </si>
+  <si>
     <t>Klebsiella pneumoniae</t>
   </si>
   <si>
@@ -74,6 +77,12 @@
   </si>
   <si>
     <t>Staphylococcus aureus</t>
+  </si>
+  <si>
+    <t>Staphylococcus capitis</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Staphylococcus coagulase-negative</t>
@@ -93,346 +102,18 @@
   <si>
     <t>Outpatient</t>
   </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>retrieve_wisca_parameters(w)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">w </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF666666"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> example_isolates </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF666666"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>%&gt;%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  filter_first_isolate(method </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF666666"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFBA2121"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>"e"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">, episode_days </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF666666"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF666666"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>14</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF666666"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>%&gt;%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  top_n_microorganisms(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF666666"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF666666"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>%&gt;%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  group_by(ward) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF666666"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>%&gt;%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  wisca(antibiotics </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF666666"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> c(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFBA2121"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>"TZP"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFBA2121"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>"TZP+GEN"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFBA2121"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>"TZP+TOB"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>))</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">library(AMR)   </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF408080"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t># 2.1.1.9156</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">library(dplyr) </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF408080"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t># 1.1.4</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Source Sans Pro"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Source Sans Pro"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Source Sans Pro"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF666666"/>
-      <name val="Courier New"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFBA2121"/>
-      <name val="Courier New"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF408080"/>
-      <name val="Courier New"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -455,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -466,11 +147,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,8 +165,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tabel1" displayName="tabel1" ref="A1:J36" totalsRowShown="0">
-  <autoFilter ref="A1:J36" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tabel1" displayName="tabel1" ref="A1:J88" totalsRowShown="0">
+  <autoFilter ref="A1:J88" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ward"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="mo"/>
@@ -500,8 +176,8 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="n_susceptible"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="p_susceptible"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="gamma_posterior"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="beta_posterior1"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="beta_posterior2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="beta_posterior_1"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="beta_posterior_2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -824,11 +500,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -837,10 +513,11 @@
     <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.796875" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="24.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -886,25 +563,25 @@
         <v>12</v>
       </c>
       <c r="D2" s="3">
-        <v>157</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="F2" s="3">
-        <v>152</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2">
-        <v>0.968152866242038</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1">
-        <v>174</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1">
-        <v>153</v>
+        <v>5</v>
       </c>
       <c r="J2" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -918,22 +595,22 @@
         <v>13</v>
       </c>
       <c r="D3" s="3">
-        <v>170</v>
+        <v>4</v>
       </c>
       <c r="E3" s="3">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="F3" s="3">
-        <v>170</v>
+        <v>4</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
       </c>
       <c r="H3" s="1">
-        <v>174</v>
+        <v>13</v>
       </c>
       <c r="I3" s="1">
-        <v>171</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
@@ -950,22 +627,22 @@
         <v>14</v>
       </c>
       <c r="D4" s="3">
-        <v>170</v>
+        <v>4</v>
       </c>
       <c r="E4" s="3">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="F4" s="3">
-        <v>170</v>
+        <v>4</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
       </c>
       <c r="H4" s="1">
-        <v>174</v>
+        <v>13</v>
       </c>
       <c r="I4" s="1">
-        <v>171</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -982,25 +659,25 @@
         <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="E5" s="3">
-        <v>30</v>
+        <v>173</v>
       </c>
       <c r="F5" s="3">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="G5" s="2">
-        <v>0.96296296296296302</v>
+        <v>0.968152866242038</v>
       </c>
       <c r="H5" s="1">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="I5" s="1">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="J5" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -1014,25 +691,25 @@
         <v>13</v>
       </c>
       <c r="D6" s="3">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="E6" s="3">
-        <v>30</v>
+        <v>173</v>
       </c>
       <c r="F6" s="3">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="G6" s="2">
-        <v>0.96666666666666701</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="I6" s="1">
-        <v>30</v>
+        <v>171</v>
       </c>
       <c r="J6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -1046,25 +723,25 @@
         <v>14</v>
       </c>
       <c r="D7" s="3">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="E7" s="3">
-        <v>30</v>
+        <v>173</v>
       </c>
       <c r="F7" s="3">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="G7" s="2">
-        <v>0.96666666666666701</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="I7" s="1">
-        <v>30</v>
+        <v>171</v>
       </c>
       <c r="J7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -1075,28 +752,28 @@
         <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="3">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E8" s="3">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F8" s="3">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G8" s="2">
-        <v>1</v>
+        <v>0.96296296296296302</v>
       </c>
       <c r="H8" s="1">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I8" s="1">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -1107,28 +784,28 @@
         <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="3">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E9" s="3">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F9" s="3">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G9" s="2">
-        <v>1</v>
+        <v>0.96666666666666701</v>
       </c>
       <c r="H9" s="1">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I9" s="1">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -1136,31 +813,31 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="3">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="E10" s="3">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="F10" s="3">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="G10" s="2">
-        <v>1</v>
+        <v>0.96666666666666701</v>
       </c>
       <c r="H10" s="1">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="I10" s="1">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -1171,25 +848,25 @@
         <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3">
+        <v>13</v>
+      </c>
+      <c r="E11" s="3">
+        <v>16</v>
+      </c>
+      <c r="F11" s="3">
+        <v>13</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>17</v>
+      </c>
+      <c r="I11" s="1">
         <v>14</v>
-      </c>
-      <c r="D11" s="3">
-        <v>34</v>
-      </c>
-      <c r="E11" s="3">
-        <v>76</v>
-      </c>
-      <c r="F11" s="3">
-        <v>34</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>77</v>
-      </c>
-      <c r="I11" s="1">
-        <v>35</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -1200,31 +877,31 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E12" s="3">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="F12" s="3">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G12" s="2">
-        <v>0.38888888888888901</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="I12" s="1">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J12" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -1232,31 +909,31 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" s="3">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="E13" s="3">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="F13" s="3">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="G13" s="2">
-        <v>0.97931034482758605</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="I13" s="1">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="J13" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -1267,28 +944,28 @@
         <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D14" s="3">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="F14" s="3">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G14" s="2">
-        <v>0.8125</v>
+        <v>1</v>
       </c>
       <c r="H14" s="1">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="I14" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J14" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -1296,28 +973,28 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="3">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E15" s="3">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F15" s="3">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
       </c>
       <c r="H15" s="1">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I15" s="1">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
@@ -1328,28 +1005,28 @@
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="3">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E16" s="3">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F16" s="3">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
       </c>
       <c r="H16" s="1">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I16" s="1">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
@@ -1360,31 +1037,31 @@
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F17" s="3">
-        <v>33</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
-        <v>37</v>
-      </c>
-      <c r="I17" s="1">
-        <v>34</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G17" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -1392,28 +1069,28 @@
         <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E18" s="3">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F18" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
       </c>
       <c r="H18" s="1">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="I18" s="1">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
@@ -1424,28 +1101,28 @@
         <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D19" s="3">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E19" s="3">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="F19" s="3">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
       </c>
       <c r="H19" s="1">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="I19" s="1">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="J19" s="1">
         <v>1</v>
@@ -1459,28 +1136,28 @@
         <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="3">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="E20" s="3">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="F20" s="3">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="G20" s="2">
-        <v>1</v>
+        <v>0.38888888888888901</v>
       </c>
       <c r="H20" s="1">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="I20" s="1">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="J20" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -1491,89 +1168,89 @@
         <v>21</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="3">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="E21" s="3">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="F21" s="3">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="G21" s="2">
-        <v>1</v>
+        <v>0.97931034482758605</v>
       </c>
       <c r="H21" s="1">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="I21" s="1">
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="J21" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D22" s="3">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="E22" s="3">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="F22" s="3">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="G22" s="2">
-        <v>0.89230769230769202</v>
+        <v>0.8125</v>
       </c>
       <c r="H22" s="1">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="I22" s="1">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="J22" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" s="3">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="E23" s="3">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F23" s="3">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="G23" s="2">
-        <v>0.98666666666666702</v>
+        <v>0.5</v>
       </c>
       <c r="H23" s="1">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="I23" s="1">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="J23" s="1">
         <v>2</v>
@@ -1581,63 +1258,63 @@
     </row>
     <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" s="3">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E24" s="3">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F24" s="3">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="G24" s="2">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="H24" s="1">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="I24" s="1">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="J24" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25" s="3">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E25" s="3">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="F25" s="3">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
       </c>
       <c r="H25" s="1">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="I25" s="1">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
@@ -1645,63 +1322,63 @@
     </row>
     <row r="26" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26" s="3">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="F26" s="3">
-        <v>50</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0.98039215686274495</v>
-      </c>
-      <c r="H26" s="1">
-        <v>63</v>
-      </c>
-      <c r="I26" s="1">
-        <v>51</v>
-      </c>
-      <c r="J26" s="1">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="G26" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="3">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E27" s="3">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="F27" s="3">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
       </c>
       <c r="H27" s="1">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="I27" s="1">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="J27" s="1">
         <v>1</v>
@@ -1709,31 +1386,31 @@
     </row>
     <row r="28" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E28" s="3">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="F28" s="3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
       </c>
       <c r="H28" s="1">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="I28" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J28" s="1">
         <v>1</v>
@@ -1741,31 +1418,31 @@
     </row>
     <row r="29" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29" s="3">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="E29" s="3">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="F29" s="3">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
       </c>
       <c r="H29" s="1">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="I29" s="1">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="J29" s="1">
         <v>1</v>
@@ -1773,31 +1450,31 @@
     </row>
     <row r="30" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" s="3">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="E30" s="3">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="F30" s="3">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
       </c>
       <c r="H30" s="1">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="I30" s="1">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="J30" s="1">
         <v>1</v>
@@ -1805,31 +1482,31 @@
     </row>
     <row r="31" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D31" s="3">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="E31" s="3">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="F31" s="3">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
       </c>
       <c r="H31" s="1">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I31" s="1">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="J31" s="1">
         <v>1</v>
@@ -1837,31 +1514,31 @@
     </row>
     <row r="32" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32" s="3">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E32" s="3">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F32" s="3">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
       </c>
       <c r="H32" s="1">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I32" s="1">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J32" s="1">
         <v>1</v>
@@ -1869,31 +1546,31 @@
     </row>
     <row r="33" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" s="3">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E33" s="3">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F33" s="3">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
       </c>
       <c r="H33" s="1">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I33" s="1">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J33" s="1">
         <v>1</v>
@@ -1901,31 +1578,31 @@
     </row>
     <row r="34" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D34" s="3">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E34" s="3">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F34" s="3">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
       </c>
       <c r="H34" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I34" s="1">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J34" s="1">
         <v>1</v>
@@ -1933,154 +1610,1731 @@
     </row>
     <row r="35" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D35" s="3">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="E35" s="3">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="F35" s="3">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="G35" s="2">
-        <v>1</v>
+        <v>0.89230769230769202</v>
       </c>
       <c r="H35" s="1">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I35" s="1">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="J35" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="3">
+        <v>75</v>
+      </c>
+      <c r="E36" s="3">
+        <v>75</v>
+      </c>
+      <c r="F36" s="3">
+        <v>74</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0.98666666666666702</v>
+      </c>
+      <c r="H36" s="1">
+        <v>76</v>
+      </c>
+      <c r="I36" s="1">
+        <v>75</v>
+      </c>
+      <c r="J36" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="3">
+        <v>75</v>
+      </c>
+      <c r="E37" s="3">
+        <v>75</v>
+      </c>
+      <c r="F37" s="3">
+        <v>72</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="H37" s="1">
+        <v>76</v>
+      </c>
+      <c r="I37" s="1">
+        <v>73</v>
+      </c>
+      <c r="J37" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="3">
+        <v>4</v>
+      </c>
+      <c r="E38" s="3">
+        <v>4</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H38" s="1">
+        <v>5</v>
+      </c>
+      <c r="I38" s="1">
+        <v>3</v>
+      </c>
+      <c r="J38" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="3">
+        <v>4</v>
+      </c>
+      <c r="E39" s="3">
+        <v>4</v>
+      </c>
+      <c r="F39" s="3">
+        <v>3</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H39" s="1">
+        <v>5</v>
+      </c>
+      <c r="I39" s="1">
+        <v>4</v>
+      </c>
+      <c r="J39" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="3">
+        <v>4</v>
+      </c>
+      <c r="E40" s="3">
+        <v>4</v>
+      </c>
+      <c r="F40" s="3">
+        <v>3</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H40" s="1">
+        <v>5</v>
+      </c>
+      <c r="I40" s="1">
+        <v>4</v>
+      </c>
+      <c r="J40" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="3">
+        <v>2</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3</v>
+      </c>
+      <c r="F41" s="3">
+        <v>2</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1">
+        <v>4</v>
+      </c>
+      <c r="I41" s="1">
+        <v>3</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="3">
+        <v>2</v>
+      </c>
+      <c r="E42" s="3">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3">
+        <v>2</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1">
+        <v>4</v>
+      </c>
+      <c r="I42" s="1">
+        <v>3</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="3">
+        <v>2</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3">
+        <v>2</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1">
+        <v>4</v>
+      </c>
+      <c r="I43" s="1">
+        <v>3</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>35</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="3">
+        <v>35</v>
+      </c>
+      <c r="E45" s="3">
+        <v>35</v>
+      </c>
+      <c r="F45" s="3">
+        <v>35</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1</v>
+      </c>
+      <c r="H45" s="1">
+        <v>36</v>
+      </c>
+      <c r="I45" s="1">
+        <v>36</v>
+      </c>
+      <c r="J45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="3">
+        <v>12</v>
+      </c>
+      <c r="E46" s="3">
+        <v>35</v>
+      </c>
+      <c r="F46" s="3">
+        <v>12</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1">
+        <v>36</v>
+      </c>
+      <c r="I46" s="1">
+        <v>13</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="3">
+        <v>7</v>
+      </c>
+      <c r="E48" s="3">
+        <v>8</v>
+      </c>
+      <c r="F48" s="3">
+        <v>7</v>
+      </c>
+      <c r="G48" s="2">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1">
+        <v>9</v>
+      </c>
+      <c r="I48" s="1">
+        <v>8</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="3">
+        <v>6</v>
+      </c>
+      <c r="E49" s="3">
+        <v>8</v>
+      </c>
+      <c r="F49" s="3">
+        <v>6</v>
+      </c>
+      <c r="G49" s="2">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1">
+        <v>9</v>
+      </c>
+      <c r="I49" s="1">
+        <v>7</v>
+      </c>
+      <c r="J49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="3">
+        <v>6</v>
+      </c>
+      <c r="E50" s="3">
+        <v>62</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="H50" s="1">
+        <v>63</v>
+      </c>
+      <c r="I50" s="1">
+        <v>2</v>
+      </c>
+      <c r="J50" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="3">
+        <v>51</v>
+      </c>
+      <c r="E51" s="3">
+        <v>62</v>
+      </c>
+      <c r="F51" s="3">
+        <v>50</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="H51" s="1">
+        <v>63</v>
+      </c>
+      <c r="I51" s="1">
+        <v>51</v>
+      </c>
+      <c r="J51" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="3">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3">
+        <v>62</v>
+      </c>
+      <c r="F52" s="3">
+        <v>4</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="H52" s="1">
+        <v>63</v>
+      </c>
+      <c r="I52" s="1">
+        <v>5</v>
+      </c>
+      <c r="J52" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="3">
+        <v>2</v>
+      </c>
+      <c r="E53" s="3">
+        <v>65</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>66</v>
+      </c>
+      <c r="I53" s="1">
+        <v>1</v>
+      </c>
+      <c r="J53" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="3">
+        <v>47</v>
+      </c>
+      <c r="E54" s="3">
+        <v>65</v>
+      </c>
+      <c r="F54" s="3">
+        <v>47</v>
+      </c>
+      <c r="G54" s="2">
+        <v>1</v>
+      </c>
+      <c r="H54" s="1">
+        <v>66</v>
+      </c>
+      <c r="I54" s="1">
+        <v>48</v>
+      </c>
+      <c r="J54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="3">
+        <v>17</v>
+      </c>
+      <c r="E55" s="3">
+        <v>65</v>
+      </c>
+      <c r="F55" s="3">
+        <v>17</v>
+      </c>
+      <c r="G55" s="2">
+        <v>1</v>
+      </c>
+      <c r="H55" s="1">
+        <v>66</v>
+      </c>
+      <c r="I55" s="1">
+        <v>18</v>
+      </c>
+      <c r="J55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0</v>
+      </c>
+      <c r="E56" s="3">
+        <v>25</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0</v>
+      </c>
+      <c r="G56" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="3">
+        <v>21</v>
+      </c>
+      <c r="E57" s="3">
+        <v>25</v>
+      </c>
+      <c r="F57" s="3">
+        <v>21</v>
+      </c>
+      <c r="G57" s="2">
+        <v>1</v>
+      </c>
+      <c r="H57" s="1">
+        <v>26</v>
+      </c>
+      <c r="I57" s="1">
+        <v>22</v>
+      </c>
+      <c r="J57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="3">
+        <v>16</v>
+      </c>
+      <c r="E58" s="3">
+        <v>25</v>
+      </c>
+      <c r="F58" s="3">
+        <v>16</v>
+      </c>
+      <c r="G58" s="2">
+        <v>1</v>
+      </c>
+      <c r="H58" s="1">
+        <v>26</v>
+      </c>
+      <c r="I58" s="1">
+        <v>17</v>
+      </c>
+      <c r="J58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="3">
+        <v>19</v>
+      </c>
+      <c r="E59" s="3">
+        <v>20</v>
+      </c>
+      <c r="F59" s="3">
+        <v>19</v>
+      </c>
+      <c r="G59" s="2">
+        <v>1</v>
+      </c>
+      <c r="H59" s="1">
+        <v>21</v>
+      </c>
+      <c r="I59" s="1">
+        <v>20</v>
+      </c>
+      <c r="J59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="3">
+        <v>19</v>
+      </c>
+      <c r="E60" s="3">
+        <v>20</v>
+      </c>
+      <c r="F60" s="3">
+        <v>19</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1</v>
+      </c>
+      <c r="H60" s="1">
+        <v>21</v>
+      </c>
+      <c r="I60" s="1">
+        <v>20</v>
+      </c>
+      <c r="J60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="3">
+        <v>19</v>
+      </c>
+      <c r="E61" s="3">
+        <v>20</v>
+      </c>
+      <c r="F61" s="3">
+        <v>19</v>
+      </c>
+      <c r="G61" s="2">
+        <v>1</v>
+      </c>
+      <c r="H61" s="1">
+        <v>21</v>
+      </c>
+      <c r="I61" s="1">
+        <v>20</v>
+      </c>
+      <c r="J61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0</v>
+      </c>
+      <c r="E63" s="3">
+        <v>1</v>
+      </c>
+      <c r="F63" s="3">
+        <v>0</v>
+      </c>
+      <c r="G63" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0</v>
+      </c>
+      <c r="E64" s="3">
+        <v>1</v>
+      </c>
+      <c r="F64" s="3">
+        <v>0</v>
+      </c>
+      <c r="G64" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="3">
+        <v>15</v>
+      </c>
+      <c r="E65" s="3">
+        <v>17</v>
+      </c>
+      <c r="F65" s="3">
+        <v>14</v>
+      </c>
+      <c r="G65" s="2">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="H65" s="1">
         <v>18</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="3">
+      <c r="I65" s="1">
+        <v>15</v>
+      </c>
+      <c r="J65" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="3">
+        <v>16</v>
+      </c>
+      <c r="E66" s="3">
+        <v>17</v>
+      </c>
+      <c r="F66" s="3">
+        <v>16</v>
+      </c>
+      <c r="G66" s="2">
+        <v>1</v>
+      </c>
+      <c r="H66" s="1">
+        <v>18</v>
+      </c>
+      <c r="I66" s="1">
+        <v>17</v>
+      </c>
+      <c r="J66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="3">
+        <v>16</v>
+      </c>
+      <c r="E67" s="3">
+        <v>17</v>
+      </c>
+      <c r="F67" s="3">
+        <v>16</v>
+      </c>
+      <c r="G67" s="2">
+        <v>1</v>
+      </c>
+      <c r="H67" s="1">
+        <v>18</v>
+      </c>
+      <c r="I67" s="1">
+        <v>17</v>
+      </c>
+      <c r="J67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="3">
+        <v>1</v>
+      </c>
+      <c r="E68" s="3">
+        <v>1</v>
+      </c>
+      <c r="F68" s="3">
+        <v>1</v>
+      </c>
+      <c r="G68" s="2">
+        <v>1</v>
+      </c>
+      <c r="H68" s="1">
+        <v>2</v>
+      </c>
+      <c r="I68" s="1">
+        <v>2</v>
+      </c>
+      <c r="J68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="3">
+        <v>1</v>
+      </c>
+      <c r="E69" s="3">
+        <v>1</v>
+      </c>
+      <c r="F69" s="3">
+        <v>1</v>
+      </c>
+      <c r="G69" s="2">
+        <v>1</v>
+      </c>
+      <c r="H69" s="1">
+        <v>2</v>
+      </c>
+      <c r="I69" s="1">
+        <v>2</v>
+      </c>
+      <c r="J69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="3">
+        <v>1</v>
+      </c>
+      <c r="E70" s="3">
+        <v>1</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1</v>
+      </c>
+      <c r="G70" s="2">
+        <v>1</v>
+      </c>
+      <c r="H70" s="1">
+        <v>2</v>
+      </c>
+      <c r="I70" s="1">
+        <v>2</v>
+      </c>
+      <c r="J70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0</v>
+      </c>
+      <c r="E71" s="3">
+        <v>12</v>
+      </c>
+      <c r="F71" s="3">
+        <v>0</v>
+      </c>
+      <c r="G71" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="3">
+        <v>12</v>
+      </c>
+      <c r="E72" s="3">
+        <v>12</v>
+      </c>
+      <c r="F72" s="3">
+        <v>12</v>
+      </c>
+      <c r="G72" s="2">
+        <v>1</v>
+      </c>
+      <c r="H72" s="1">
+        <v>13</v>
+      </c>
+      <c r="I72" s="1">
+        <v>13</v>
+      </c>
+      <c r="J72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="3">
+        <v>2</v>
+      </c>
+      <c r="E73" s="3">
+        <v>12</v>
+      </c>
+      <c r="F73" s="3">
+        <v>2</v>
+      </c>
+      <c r="G73" s="2">
+        <v>1</v>
+      </c>
+      <c r="H73" s="1">
+        <v>13</v>
+      </c>
+      <c r="I73" s="1">
+        <v>3</v>
+      </c>
+      <c r="J73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0</v>
+      </c>
+      <c r="E74" s="3">
+        <v>2</v>
+      </c>
+      <c r="F74" s="3">
+        <v>0</v>
+      </c>
+      <c r="G74" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="3">
+        <v>2</v>
+      </c>
+      <c r="E75" s="3">
+        <v>2</v>
+      </c>
+      <c r="F75" s="3">
+        <v>2</v>
+      </c>
+      <c r="G75" s="2">
+        <v>1</v>
+      </c>
+      <c r="H75" s="1">
+        <v>3</v>
+      </c>
+      <c r="I75" s="1">
+        <v>3</v>
+      </c>
+      <c r="J75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="3">
+        <v>2</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2</v>
+      </c>
+      <c r="F76" s="3">
+        <v>2</v>
+      </c>
+      <c r="G76" s="2">
+        <v>1</v>
+      </c>
+      <c r="H76" s="1">
+        <v>3</v>
+      </c>
+      <c r="I76" s="1">
+        <v>3</v>
+      </c>
+      <c r="J76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="3">
+        <v>3</v>
+      </c>
+      <c r="E77" s="3">
+        <v>25</v>
+      </c>
+      <c r="F77" s="3">
+        <v>1</v>
+      </c>
+      <c r="G77" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="H77" s="1">
+        <v>26</v>
+      </c>
+      <c r="I77" s="1">
+        <v>2</v>
+      </c>
+      <c r="J77" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="3">
         <v>23</v>
       </c>
-      <c r="E36" s="3">
-        <v>25</v>
-      </c>
-      <c r="F36" s="3">
+      <c r="E78" s="3">
+        <v>25</v>
+      </c>
+      <c r="F78" s="3">
         <v>22</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G78" s="2">
         <v>0.95652173913043503</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H78" s="1">
         <v>26</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I78" s="1">
         <v>23</v>
       </c>
-      <c r="J36" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="7"/>
-    </row>
-    <row r="39" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="7"/>
-    </row>
-    <row r="40" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="7"/>
-    </row>
-    <row r="41" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="J78" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="7"/>
-    </row>
-    <row r="42" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="7"/>
-    </row>
-    <row r="43" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="7"/>
-    </row>
-    <row r="44" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" s="7"/>
-    </row>
-    <row r="45" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" s="7"/>
-    </row>
-    <row r="46" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="7"/>
-    </row>
-    <row r="47" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="B79" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="3">
+        <v>2</v>
+      </c>
+      <c r="E79" s="3">
+        <v>25</v>
+      </c>
+      <c r="F79" s="3">
+        <v>1</v>
+      </c>
+      <c r="G79" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H79" s="1">
+        <v>26</v>
+      </c>
+      <c r="I79" s="1">
+        <v>2</v>
+      </c>
+      <c r="J79" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="3">
+        <v>0</v>
+      </c>
+      <c r="E80" s="3">
+        <v>8</v>
+      </c>
+      <c r="F80" s="3">
+        <v>0</v>
+      </c>
+      <c r="G80" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="3">
+        <v>7</v>
+      </c>
+      <c r="E81" s="3">
+        <v>8</v>
+      </c>
+      <c r="F81" s="3">
+        <v>7</v>
+      </c>
+      <c r="G81" s="2">
+        <v>1</v>
+      </c>
+      <c r="H81" s="1">
+        <v>9</v>
+      </c>
+      <c r="I81" s="1">
+        <v>8</v>
+      </c>
+      <c r="J81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" s="3">
+        <v>3</v>
+      </c>
+      <c r="E82" s="3">
+        <v>8</v>
+      </c>
+      <c r="F82" s="3">
+        <v>3</v>
+      </c>
+      <c r="G82" s="2">
+        <v>1</v>
+      </c>
+      <c r="H82" s="1">
+        <v>9</v>
+      </c>
+      <c r="I82" s="1">
+        <v>4</v>
+      </c>
+      <c r="J82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>7</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" s="3">
+        <v>7</v>
+      </c>
+      <c r="E84" s="3">
+        <v>7</v>
+      </c>
+      <c r="F84" s="3">
+        <v>7</v>
+      </c>
+      <c r="G84" s="2">
+        <v>1</v>
+      </c>
+      <c r="H84" s="1">
+        <v>8</v>
+      </c>
+      <c r="I84" s="1">
+        <v>8</v>
+      </c>
+      <c r="J84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="3">
+        <v>6</v>
+      </c>
+      <c r="E85" s="3">
+        <v>7</v>
+      </c>
+      <c r="F85" s="3">
+        <v>6</v>
+      </c>
+      <c r="G85" s="2">
+        <v>1</v>
+      </c>
+      <c r="H85" s="1">
+        <v>8</v>
+      </c>
+      <c r="I85" s="1">
+        <v>7</v>
+      </c>
+      <c r="J85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="7"/>
-    </row>
-    <row r="48" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" s="7"/>
-    </row>
-    <row r="49" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="7"/>
-    </row>
-    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-    </row>
-    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="4"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="4"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="4"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="4"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="4"/>
+      <c r="C86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="3">
+        <v>6</v>
+      </c>
+      <c r="E86" s="3">
+        <v>6</v>
+      </c>
+      <c r="F86" s="3">
+        <v>6</v>
+      </c>
+      <c r="G86" s="2">
+        <v>1</v>
+      </c>
+      <c r="H86" s="1">
+        <v>7</v>
+      </c>
+      <c r="I86" s="1">
+        <v>7</v>
+      </c>
+      <c r="J86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" s="3">
+        <v>6</v>
+      </c>
+      <c r="E87" s="3">
+        <v>6</v>
+      </c>
+      <c r="F87" s="3">
+        <v>6</v>
+      </c>
+      <c r="G87" s="2">
+        <v>1</v>
+      </c>
+      <c r="H87" s="1">
+        <v>7</v>
+      </c>
+      <c r="I87" s="1">
+        <v>7</v>
+      </c>
+      <c r="J87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="3">
+        <v>6</v>
+      </c>
+      <c r="E88" s="3">
+        <v>6</v>
+      </c>
+      <c r="F88" s="3">
+        <v>6</v>
+      </c>
+      <c r="G88" s="2">
+        <v>1</v>
+      </c>
+      <c r="H88" s="1">
+        <v>7</v>
+      </c>
+      <c r="I88" s="1">
+        <v>7</v>
+      </c>
+      <c r="J88" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
